--- a/SQL-for-Data-Analysis/L4-Project-Query-Music-Store/Misc/project-draft.xlsx
+++ b/SQL-for-Data-Analysis/L4-Project-Query-Music-Store/Misc/project-draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/SQL-for-Data-Analysis/L4-Project-Query-Music-Store/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BBFC70-827A-7248-AF26-AE1522CE7D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F8A60-4457-A64E-9ED1-DB8FCD9B9E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35160" yWindow="460" windowWidth="33880" windowHeight="19140" activeTab="5" xr2:uid="{372C2D5C-EE21-8445-9E9A-6188C700AC3C}"/>
+    <workbookView xWindow="-35160" yWindow="460" windowWidth="33880" windowHeight="19140" activeTab="4" xr2:uid="{372C2D5C-EE21-8445-9E9A-6188C700AC3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Percentage_of_sale_per_genre" sheetId="1" r:id="rId1"/>
@@ -18,112 +18,16 @@
     <sheet name="Percentage_of_sale__media_type" sheetId="15" r:id="rId3"/>
     <sheet name="Sheet20" sheetId="21" r:id="rId4"/>
     <sheet name="Sales_agent_perfromance" sheetId="18" r:id="rId5"/>
-    <sheet name="Sheet21" sheetId="22" r:id="rId6"/>
-    <sheet name="Total_value_of_sales_by_agents" sheetId="17" r:id="rId7"/>
+    <sheet name="Total_value_of_sales_by_agents" sheetId="17" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sales_agent_perfromance!$B$3:$D$414</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sales_agent_perfromance!$B$3</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sales_agent_perfromance!$C$3</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sales_agent_perfromance!$C$4:$C$149</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sales_agent_perfromance!$D$3</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Total_value_of_sales_by_agents!$C$23:$C$25</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sales_agent_perfromance!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Total_value_of_sales_by_agents!$C$23:$C$25</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Total_value_of_sales_by_agents!$J$4:$K$6</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Total_value_of_sales_by_agents!$C$23:$C$25</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Total_value_of_sales_by_agents!$C$23:$C$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sales_agent_perfromance!$B$4:$B$149</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Total_value_of_sales_by_agents!$C$23:$C$25</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Total_value_of_sales_by_agents!$B$23:$C$25</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Total_value_of_sales_by_agents!$E$23:$E$25</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Total_value_of_sales_by_agents!$B$23:$C$25</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Total_value_of_sales_by_agents!$D$23:$D$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sales_agent_perfromance!$D$4:$D$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -753,7 +657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51CA37FE-2039-CB40-9660-1E646E7D8675}" type="CELLRANGE">
+                    <a:fld id="{CB569702-F1DC-CA48-85AA-F5C1306FA0DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -762,7 +666,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{3AC6DB5D-F7F6-DC40-AC57-13FB20F58108}" type="VALUE">
+                    <a:fld id="{5CF9D442-07D1-CB48-BE92-EAF18B3B4A17}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -797,7 +701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{586ACF87-89B5-084D-85E5-C1D961FF4623}" type="CELLRANGE">
+                    <a:fld id="{F1E92FDD-D5D2-5A42-89AC-FF11928E22FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -806,7 +710,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{CD674009-E971-EB4D-AA7A-D1E36F80B4A4}" type="VALUE">
+                    <a:fld id="{3B1A51C3-48FE-6B4A-88D8-D0428FE41CFC}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -841,7 +745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{810386BD-1CE8-EB48-8284-2701F2E0178C}" type="CELLRANGE">
+                    <a:fld id="{28FA92F3-68A2-C542-8D30-72325055AC05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -850,7 +754,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{E0BDAB5C-B4C2-754C-9C2F-BB791A5CEBA6}" type="VALUE">
+                    <a:fld id="{AD21BBB6-411A-EE4A-A028-9CAD1605B35C}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -885,7 +789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B021261-49CC-C940-BB03-699EA1674911}" type="CELLRANGE">
+                    <a:fld id="{9CD4B897-548F-B54C-933F-3FAB43FC716B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -894,7 +798,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{91AE4AAE-A0D5-8647-929E-6B62182307C7}" type="VALUE">
+                    <a:fld id="{9089FABE-3E64-DB4C-B527-DAD731739D72}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -929,7 +833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D112F2A-7CB4-794E-BB59-A395725A1D64}" type="CELLRANGE">
+                    <a:fld id="{97E34234-DA0B-654D-9AFA-CB158F99B008}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -938,7 +842,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{8C086515-520C-C244-9384-32950B0EF8E8}" type="VALUE">
+                    <a:fld id="{903F3C35-5D81-1145-ABF9-5D5628E9D349}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -973,7 +877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B26440C-421E-1340-88E0-72E8EC39CF65}" type="CELLRANGE">
+                    <a:fld id="{C09BECAC-4CF6-CC40-9D43-3311D242356D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -982,7 +886,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{7C8FA0C5-E719-834D-B5BE-2B876099F65B}" type="VALUE">
+                    <a:fld id="{61D9421F-6C2E-AA41-95E2-C7D66154AFC8}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1017,7 +921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEA09EDB-5773-674F-80DF-5E71F17915B2}" type="CELLRANGE">
+                    <a:fld id="{D0B8174B-8B3D-D24A-A88F-98FD686CC5BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1026,7 +930,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{8D837D37-E4D6-F147-8660-FB4FFDD692EB}" type="VALUE">
+                    <a:fld id="{034F5652-1B8B-3945-9DC9-11F943D07A82}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1061,7 +965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70405043-7B2F-9D4C-96BD-76CC5C3A10A3}" type="CELLRANGE">
+                    <a:fld id="{6DF2C771-8D7E-F64C-B16A-72F09283A4D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1070,7 +974,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{3941E9AA-CB5A-234B-BD01-6FC29D3A5F6C}" type="VALUE">
+                    <a:fld id="{476C1BBD-166C-9448-97D6-7E70B5D92F20}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1105,7 +1009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B893598-2B9C-EF4C-9754-978FA3D37EBA}" type="CELLRANGE">
+                    <a:fld id="{0E84ABC9-53C8-B449-B0C3-047619ACC209}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1114,7 +1018,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{E73C650A-7A87-FD49-935E-F43539316D8E}" type="VALUE">
+                    <a:fld id="{6BEA0C88-B632-B440-9791-DDA1D7EDCEDE}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1149,7 +1053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA776157-EA3E-214E-95A7-D423481944D2}" type="CELLRANGE">
+                    <a:fld id="{9BEAAD5C-31C7-CE42-BC0C-0D2C75F9FE37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1158,7 +1062,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{CDD72DDD-4DF3-1748-989D-7CBD5F1308AB}" type="VALUE">
+                    <a:fld id="{BC267D2D-7765-F248-9573-46E5BD8D4ED7}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -2722,7 +2626,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2867,6 +2771,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2909,6 +2818,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2951,6 +2865,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2993,6 +2912,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3035,6 +2959,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -3046,7 +2975,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3191,6 +3120,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3233,6 +3167,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3275,6 +3214,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3317,6 +3261,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3359,6 +3308,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-31DA-ED49-8C7D-CF709F48048F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -3370,7 +3324,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -4167,17 +4121,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4215,10 +4169,16 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E055B742-2F02-4D49-A507-F3B21D8E3F3D}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Jane Peacock</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln w="15875">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4237,10 +4197,14 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A1F7AEEF-D4B9-834C-88F1-95910181E4C1}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Margaret Park</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln w="15875">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4259,10 +4223,14 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B04AD4F7-D3CB-0B45-80E5-C2A3D3B30EA9}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Steve Johnson</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln w="15875">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7297,7 +7265,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4889500" y="342900"/>
-              <a:ext cx="10071100" cy="7734300"/>
+              <a:ext cx="11747500" cy="7747000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8342,8 +8310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D80029-54B4-A840-B3CC-C7DA06AF1C66}">
   <dimension ref="B2:PM414"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12755,2905 +12723,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD21710-D36E-4C4F-A231-233C22AE4384}">
-  <dimension ref="B3:D414"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D414"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2">
-        <v>17.91</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2">
-        <v>18.86</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="2">
-        <v>21.86</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="2">
-        <v>9.91</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="2">
-        <v>15.86</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="2:4">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:4">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
-      <c r="B120" s="2"/>
-      <c r="C120" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="2:4">
-      <c r="B121" s="2"/>
-      <c r="C121" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="2:4">
-      <c r="B122" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="2:4">
-      <c r="B123" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="2:4">
-      <c r="B124" s="2"/>
-      <c r="C124" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="2:4">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="2:4">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="2:4">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="2:4">
-      <c r="B129" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="2:4">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="2:4">
-      <c r="B131" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="2:4">
-      <c r="B133" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="2:4">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="2:4">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="2:4">
-      <c r="B137" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="2:4">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="2:4">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4">
-      <c r="B140" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4">
-      <c r="B144" s="2"/>
-      <c r="C144" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="B145" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="2:4">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4">
-      <c r="B147" s="2"/>
-      <c r="C147" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="2:4">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="2:4">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="2:4">
-      <c r="B157" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="2:4">
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4">
-      <c r="B159" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="2:4">
-      <c r="B160" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="2:4">
-      <c r="B161" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="2:4">
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4">
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4">
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4">
-      <c r="B165" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="2:4">
-      <c r="B166" s="2"/>
-      <c r="C166" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="2:4">
-      <c r="B167" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="2:4">
-      <c r="B168" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="2:4">
-      <c r="B169" s="2"/>
-      <c r="C169" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="2:4">
-      <c r="B170" s="2"/>
-      <c r="C170" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="2:4">
-      <c r="B171" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="2:4">
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4">
-      <c r="B173" s="2"/>
-      <c r="C173" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="2:4">
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4">
-      <c r="B176" s="2"/>
-      <c r="C176" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="2:4">
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4">
-      <c r="B178" s="2"/>
-      <c r="C178" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="2:4">
-      <c r="B179" s="2"/>
-      <c r="C179" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="2:4">
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4">
-      <c r="B181" s="2"/>
-      <c r="C181" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="2:4">
-      <c r="B182" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="2:4">
-      <c r="B183" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="2:4">
-      <c r="B184" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="2:4">
-      <c r="B185" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="2:4">
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4">
-      <c r="B187" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="2:4">
-      <c r="B188" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="2:4">
-      <c r="B189" s="2"/>
-      <c r="C189" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="2:4">
-      <c r="B190" s="2"/>
-      <c r="C190" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="2:4">
-      <c r="B191" s="2"/>
-      <c r="C191" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="2:4">
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4">
-      <c r="B193" s="2"/>
-      <c r="C193" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="2:4">
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4">
-      <c r="B195" s="2">
-        <v>14.91</v>
-      </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="2:4">
-      <c r="B196" s="2">
-        <v>21.86</v>
-      </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="2:4">
-      <c r="B197" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="2:4">
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4">
-      <c r="B199" s="2"/>
-      <c r="C199" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="2:4">
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4">
-      <c r="B201" s="2"/>
-      <c r="C201" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="2:4">
-      <c r="B202" s="2"/>
-      <c r="C202" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="2:4">
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2">
-        <v>18.86</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4">
-      <c r="B204" s="2"/>
-      <c r="C204" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="2:4">
-      <c r="B205" s="2"/>
-      <c r="C205" s="2">
-        <v>2.98</v>
-      </c>
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="B207" s="2">
-        <v>7.96</v>
-      </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" s="2"/>
-      <c r="C210" s="2">
-        <v>15.86</v>
-      </c>
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" s="2"/>
-      <c r="C214" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" s="2"/>
-      <c r="C215" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="2:4">
-      <c r="B218" s="2"/>
-      <c r="C218" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="2:4">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4">
-      <c r="B220" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="2:4">
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
-      <c r="B223" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="2:4">
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4">
-      <c r="B225" s="2"/>
-      <c r="C225" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="2:4">
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4">
-      <c r="B227" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="2:4">
-      <c r="B228" s="2"/>
-      <c r="C228" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="2:4">
-      <c r="B229" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="2:4">
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4">
-      <c r="B231" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="2:4">
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4">
-      <c r="B233" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="2:4">
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4">
-      <c r="B235" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="2:4">
-      <c r="B236" s="2"/>
-      <c r="C236" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="2:4">
-      <c r="B237" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238" spans="2:4">
-      <c r="B238" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="2:4">
-      <c r="B239" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="2:4">
-      <c r="B240" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="2:4">
-      <c r="B241" s="2"/>
-      <c r="C241" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D241" s="2"/>
-    </row>
-    <row r="242" spans="2:4">
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4">
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4">
-      <c r="B244" s="2"/>
-      <c r="C244" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D244" s="2"/>
-    </row>
-    <row r="245" spans="2:4">
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4">
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4">
-      <c r="B247" s="2"/>
-      <c r="C247" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="2:4">
-      <c r="B248" s="2"/>
-      <c r="C248" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D248" s="2"/>
-    </row>
-    <row r="249" spans="2:4">
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4">
-      <c r="B250" s="2"/>
-      <c r="C250" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251" spans="2:4">
-      <c r="B251" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252" spans="2:4">
-      <c r="B252" s="2"/>
-      <c r="C252" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253" spans="2:4">
-      <c r="B253" s="2"/>
-      <c r="C253" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="2:4">
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4">
-      <c r="B255" s="2"/>
-      <c r="C255" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="2:4">
-      <c r="B256" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257" spans="2:4">
-      <c r="B257" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258" spans="2:4">
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4">
-      <c r="B259" s="2"/>
-      <c r="C259" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260" spans="2:4">
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4">
-      <c r="B261" s="2"/>
-      <c r="C261" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D261" s="2"/>
-    </row>
-    <row r="262" spans="2:4">
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4">
-      <c r="B263" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264" spans="2:4">
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="265" spans="2:4">
-      <c r="B265" s="2"/>
-      <c r="C265" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D265" s="2"/>
-    </row>
-    <row r="266" spans="2:4">
-      <c r="B266" s="2"/>
-      <c r="C266" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D266" s="2"/>
-    </row>
-    <row r="267" spans="2:4">
-      <c r="B267" s="2"/>
-      <c r="C267" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268" spans="2:4">
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="269" spans="2:4">
-      <c r="B269" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="2:4">
-      <c r="B270" s="2"/>
-      <c r="C270" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="2:4">
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="272" spans="2:4">
-      <c r="B272" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-    </row>
-    <row r="273" spans="2:4">
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4">
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4">
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="276" spans="2:4">
-      <c r="B276" s="2"/>
-      <c r="C276" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D276" s="2"/>
-    </row>
-    <row r="277" spans="2:4">
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4">
-      <c r="B278" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279" spans="2:4">
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="280" spans="2:4">
-      <c r="B280" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281" spans="2:4">
-      <c r="B281" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-    </row>
-    <row r="282" spans="2:4">
-      <c r="B282" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283" spans="2:4">
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4">
-      <c r="B284" s="2"/>
-      <c r="C284" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D284" s="2"/>
-    </row>
-    <row r="285" spans="2:4">
-      <c r="B285" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-    </row>
-    <row r="286" spans="2:4">
-      <c r="B286" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-    </row>
-    <row r="287" spans="2:4">
-      <c r="B287" s="2"/>
-      <c r="C287" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D287" s="2"/>
-    </row>
-    <row r="288" spans="2:4">
-      <c r="B288" s="2"/>
-      <c r="C288" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289" spans="2:4">
-      <c r="B289" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-    </row>
-    <row r="290" spans="2:4">
-      <c r="B290" s="2"/>
-      <c r="C290" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D290" s="2"/>
-    </row>
-    <row r="291" spans="2:4">
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="292" spans="2:4">
-      <c r="B292" s="2"/>
-      <c r="C292" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D292" s="2"/>
-    </row>
-    <row r="293" spans="2:4">
-      <c r="B293" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-    </row>
-    <row r="294" spans="2:4">
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="295" spans="2:4">
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="296" spans="2:4">
-      <c r="B296" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="2:4">
-      <c r="B297" s="2"/>
-      <c r="C297" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="2:4">
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="299" spans="2:4">
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4">
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2">
-        <v>10.91</v>
-      </c>
-    </row>
-    <row r="301" spans="2:4">
-      <c r="B301" s="2"/>
-      <c r="C301" s="2">
-        <v>23.86</v>
-      </c>
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302" spans="2:4">
-      <c r="B302" s="2"/>
-      <c r="C302" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="2:4">
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4">
-      <c r="B304" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-    </row>
-    <row r="305" spans="2:4">
-      <c r="B305" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-    </row>
-    <row r="306" spans="2:4">
-      <c r="B306" s="2"/>
-      <c r="C306" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307" spans="2:4">
-      <c r="B307" s="2"/>
-      <c r="C307" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D307" s="2"/>
-    </row>
-    <row r="308" spans="2:4">
-      <c r="B308" s="2"/>
-      <c r="C308" s="2">
-        <v>16.86</v>
-      </c>
-      <c r="D308" s="2"/>
-    </row>
-    <row r="309" spans="2:4">
-      <c r="B309" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310" spans="2:4">
-      <c r="B310" s="2"/>
-      <c r="C310" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="D310" s="2"/>
-    </row>
-    <row r="311" spans="2:4">
-      <c r="B311" s="2"/>
-      <c r="C311" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="D311" s="2"/>
-    </row>
-    <row r="312" spans="2:4">
-      <c r="B312" s="2">
-        <v>7.96</v>
-      </c>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313" spans="2:4">
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2">
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4">
-      <c r="B314" s="2"/>
-      <c r="C314" s="2">
-        <v>10.91</v>
-      </c>
-      <c r="D314" s="2"/>
-    </row>
-    <row r="315" spans="2:4">
-      <c r="B315" s="2">
-        <v>16.86</v>
-      </c>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-    </row>
-    <row r="316" spans="2:4">
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="317" spans="2:4">
-      <c r="B317" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-    </row>
-    <row r="318" spans="2:4">
-      <c r="B318" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-    </row>
-    <row r="319" spans="2:4">
-      <c r="B319" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-    </row>
-    <row r="320" spans="2:4">
-      <c r="B320" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-    </row>
-    <row r="321" spans="2:4">
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4">
-      <c r="B322" s="2"/>
-      <c r="C322" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323" spans="2:4">
-      <c r="B323" s="2"/>
-      <c r="C323" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="2:4">
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="325" spans="2:4">
-      <c r="B325" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-    </row>
-    <row r="326" spans="2:4">
-      <c r="B326" s="2"/>
-      <c r="C326" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="2:4">
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4">
-      <c r="B328" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="2:4">
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4">
-      <c r="B330" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="2:4">
-      <c r="B331" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="2:4">
-      <c r="B332" s="2"/>
-      <c r="C332" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="2:4">
-      <c r="B333" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-    </row>
-    <row r="334" spans="2:4">
-      <c r="B334" s="2"/>
-      <c r="C334" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="2:4">
-      <c r="B335" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="2:4">
-      <c r="B336" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-    </row>
-    <row r="337" spans="2:4">
-      <c r="B337" s="2"/>
-      <c r="C337" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="2:4">
-      <c r="B338" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-    </row>
-    <row r="339" spans="2:4">
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4">
-      <c r="B340" s="2"/>
-      <c r="C340" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="2:4">
-      <c r="B341" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="2:4">
-      <c r="B342" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="2:4">
-      <c r="B343" s="2"/>
-      <c r="C343" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D343" s="2"/>
-    </row>
-    <row r="344" spans="2:4">
-      <c r="B344" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="2:4">
-      <c r="B345" s="2"/>
-      <c r="C345" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="2:4">
-      <c r="B346" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="2:4">
-      <c r="B347" s="2"/>
-      <c r="C347" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="2:4">
-      <c r="B348" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="2:4">
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4">
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4">
-      <c r="B351" s="2"/>
-      <c r="C351" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="2:4">
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4">
-      <c r="B353" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="2:4">
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4">
-      <c r="B355" s="2"/>
-      <c r="C355" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356" spans="2:4">
-      <c r="B356" s="2"/>
-      <c r="C356" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="2:4">
-      <c r="B357" s="2"/>
-      <c r="C357" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="2:4">
-      <c r="B358" s="2"/>
-      <c r="C358" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="2:4">
-      <c r="B359" s="2"/>
-      <c r="C359" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="2:4">
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="361" spans="2:4">
-      <c r="B361" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="2:4">
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4">
-      <c r="B363" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="2:4">
-      <c r="B364" s="2"/>
-      <c r="C364" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="2:4">
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="366" spans="2:4">
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="367" spans="2:4">
-      <c r="B367" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="2:4">
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4">
-      <c r="B369" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="2:4">
-      <c r="B370" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="2:4">
-      <c r="B371" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="2:4">
-      <c r="B372" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="2:4">
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4">
-      <c r="B374" s="2"/>
-      <c r="C374" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="2:4">
-      <c r="B375" s="2"/>
-      <c r="C375" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="2:4">
-      <c r="B376" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="2:4">
-      <c r="B377" s="2"/>
-      <c r="C377" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="2:4">
-      <c r="B378" s="2"/>
-      <c r="C378" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="2:4">
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4">
-      <c r="B380" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="2:4">
-      <c r="B381" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="2:4">
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="383" spans="2:4">
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="384" spans="2:4">
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="385" spans="2:4">
-      <c r="B385" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="2:4">
-      <c r="B386" s="2"/>
-      <c r="C386" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387" spans="2:4">
-      <c r="B387" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="2:4">
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="389" spans="2:4">
-      <c r="B389" s="2"/>
-      <c r="C389" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="2:4">
-      <c r="B390" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="2:4">
-      <c r="B391" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="2:4">
-      <c r="B392" s="2"/>
-      <c r="C392" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="2:4">
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="394" spans="2:4">
-      <c r="B394" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-    </row>
-    <row r="395" spans="2:4">
-      <c r="B395" s="2"/>
-      <c r="C395" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D395" s="2"/>
-    </row>
-    <row r="396" spans="2:4">
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="397" spans="2:4">
-      <c r="B397" s="2"/>
-      <c r="C397" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D397" s="2"/>
-    </row>
-    <row r="398" spans="2:4">
-      <c r="B398" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399" spans="2:4">
-      <c r="B399" s="2"/>
-      <c r="C399" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="D399" s="2"/>
-    </row>
-    <row r="400" spans="2:4">
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4">
-      <c r="B401" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402" spans="2:4">
-      <c r="B402" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403" spans="2:4">
-      <c r="B403" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404" spans="2:4">
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4">
-      <c r="B405" s="2"/>
-      <c r="C405" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406" spans="2:4">
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2">
-        <v>25.86</v>
-      </c>
-    </row>
-    <row r="407" spans="2:4">
-      <c r="B407" s="2"/>
-      <c r="C407" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D407" s="2"/>
-    </row>
-    <row r="408" spans="2:4">
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="2">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4">
-      <c r="B409" s="2"/>
-      <c r="C409" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="D409" s="2"/>
-    </row>
-    <row r="410" spans="2:4">
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="411" spans="2:4">
-      <c r="B411" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="2:4">
-      <c r="B412" s="2"/>
-      <c r="C412" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="D412" s="2"/>
-    </row>
-    <row r="413" spans="2:4">
-      <c r="B413" s="2">
-        <v>13.86</v>
-      </c>
-      <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-    </row>
-    <row r="414" spans="2:4">
-      <c r="B414" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CFB0A7-015E-554B-A0D6-33171D01A38B}">
   <dimension ref="B8:E47"/>
   <sheetViews>

--- a/SQL-for-Data-Analysis/L4-Project-Query-Music-Store/Misc/project-draft.xlsx
+++ b/SQL-for-Data-Analysis/L4-Project-Query-Music-Store/Misc/project-draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/SQL-for-Data-Analysis/L4-Project-Query-Music-Store/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F8A60-4457-A64E-9ED1-DB8FCD9B9E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFF851-CC09-1F46-B48A-DE1D414D79E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35160" yWindow="460" windowWidth="33880" windowHeight="19140" activeTab="4" xr2:uid="{372C2D5C-EE21-8445-9E9A-6188C700AC3C}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="33880" windowHeight="19140" activeTab="4" xr2:uid="{372C2D5C-EE21-8445-9E9A-6188C700AC3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Percentage_of_sale_per_genre" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB569702-F1DC-CA48-85AA-F5C1306FA0DA}" type="CELLRANGE">
+                    <a:fld id="{A0923B8A-68BF-064A-A5A6-F70B86117338}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -666,7 +666,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{5CF9D442-07D1-CB48-BE92-EAF18B3B4A17}" type="VALUE">
+                    <a:fld id="{87B71E97-9ABA-6E44-B2EC-E2589E018652}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -701,7 +701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1E92FDD-D5D2-5A42-89AC-FF11928E22FC}" type="CELLRANGE">
+                    <a:fld id="{4030BF9D-95FF-7240-8C36-CACA73B972C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -710,7 +710,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{3B1A51C3-48FE-6B4A-88D8-D0428FE41CFC}" type="VALUE">
+                    <a:fld id="{7FCC09F0-F0CC-F04E-8129-1BE1CD211358}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -745,7 +745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28FA92F3-68A2-C542-8D30-72325055AC05}" type="CELLRANGE">
+                    <a:fld id="{9E2DD7B4-31BD-3F4E-900C-4104F4C9BE10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -754,7 +754,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{AD21BBB6-411A-EE4A-A028-9CAD1605B35C}" type="VALUE">
+                    <a:fld id="{70512E75-EA1D-4648-AAB4-61B1820530F9}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -789,7 +789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CD4B897-548F-B54C-933F-3FAB43FC716B}" type="CELLRANGE">
+                    <a:fld id="{0C38BE99-15BF-DD41-BFD4-898C8B05153F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -798,7 +798,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{9089FABE-3E64-DB4C-B527-DAD731739D72}" type="VALUE">
+                    <a:fld id="{A38C0810-FDCF-FD4D-9594-C0B00F3202A1}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -833,7 +833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97E34234-DA0B-654D-9AFA-CB158F99B008}" type="CELLRANGE">
+                    <a:fld id="{1EEF3076-38EC-0D4E-A68E-86383BC142BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -842,7 +842,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{903F3C35-5D81-1145-ABF9-5D5628E9D349}" type="VALUE">
+                    <a:fld id="{9D5FA385-9226-9F42-BB64-142435FDBA4A}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -877,7 +877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C09BECAC-4CF6-CC40-9D43-3311D242356D}" type="CELLRANGE">
+                    <a:fld id="{DE72C0F3-B23E-814E-851E-235BADCB8622}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -886,7 +886,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{61D9421F-6C2E-AA41-95E2-C7D66154AFC8}" type="VALUE">
+                    <a:fld id="{0FBCB00B-4C0D-524B-8EF6-79B4837ABA2F}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -921,7 +921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0B8174B-8B3D-D24A-A88F-98FD686CC5BE}" type="CELLRANGE">
+                    <a:fld id="{8616E552-0C2B-DF41-ABED-61CF5C4A4C7A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -930,7 +930,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{034F5652-1B8B-3945-9DC9-11F943D07A82}" type="VALUE">
+                    <a:fld id="{EAFC43EF-17EE-E445-9285-B95FF362C819}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -965,7 +965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DF2C771-8D7E-F64C-B16A-72F09283A4D0}" type="CELLRANGE">
+                    <a:fld id="{AAADD966-7A36-9F4F-B1B4-383AD20E3BDF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -974,7 +974,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{476C1BBD-166C-9448-97D6-7E70B5D92F20}" type="VALUE">
+                    <a:fld id="{D058FF2E-49F2-184C-834C-AFEFC03DD694}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1009,7 +1009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E84ABC9-53C8-B449-B0C3-047619ACC209}" type="CELLRANGE">
+                    <a:fld id="{F45AAABF-D05B-4D4D-A479-B06A0D7F1D7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1018,7 +1018,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{6BEA0C88-B632-B440-9791-DDA1D7EDCEDE}" type="VALUE">
+                    <a:fld id="{533920D9-5ABC-C942-B253-65D17325A6F0}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1053,7 +1053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BEAAD5C-31C7-CE42-BC0C-0D2C75F9FE37}" type="CELLRANGE">
+                    <a:fld id="{F866987D-221A-3142-8616-6C7BF58AF88D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1062,7 +1062,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{BC267D2D-7765-F248-9573-46E5BD8D4ED7}" type="VALUE">
+                    <a:fld id="{040B19BE-E5C3-1942-9F63-A2FC3D1FD608}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -8311,7 +8311,7 @@
   <dimension ref="B2:PM414"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
